--- a/pity_track.xlsx
+++ b/pity_track.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="51">
   <si>
     <t>Player Name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>October 2025</t>
   </si>
   <si>
+    <t>November 2025</t>
+  </si>
+  <si>
     <t>Satan</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>Anas</t>
   </si>
   <si>
+    <t>Recei</t>
+  </si>
+  <si>
     <t>ImagineWaggons</t>
   </si>
   <si>
@@ -143,6 +149,24 @@
   </si>
   <si>
     <t>BB Crazy</t>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t>redking</t>
+  </si>
+  <si>
+    <t>Taycid</t>
+  </si>
+  <si>
+    <t>Icebreaker261</t>
+  </si>
+  <si>
+    <t>slothnz</t>
+  </si>
+  <si>
+    <t>RipexFruit</t>
   </si>
 </sst>
 </file>
@@ -522,7 +546,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -535,6 +559,7 @@
     <col min="3" max="3" style="6" width="10.862142857142858" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="13.719285714285713" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -553,499 +578,681 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
